--- a/pin-mapping/p1-pinmap.xlsx
+++ b/pin-mapping/p1-pinmap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\photon-internal\datasheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\photon-internal\pin-mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="129">
   <si>
     <t>Pin-No</t>
   </si>
@@ -48,9 +48,6 @@
     <t>(PA7)</t>
   </si>
   <si>
-    <t>MICRO_SPI1_NSS</t>
-  </si>
-  <si>
     <t>J8</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>(PC5)</t>
   </si>
   <si>
-    <t>MICRO_JTAG_TRST</t>
-  </si>
-  <si>
     <t>B4</t>
   </si>
   <si>
@@ -349,6 +343,69 @@
   </si>
   <si>
     <t>P1/WM-N-BM-14 PIN MAPPING</t>
+  </si>
+  <si>
+    <t>MICRO_SPI1_SSN</t>
+  </si>
+  <si>
+    <t>MICRO_JTAG_TRSTN</t>
+  </si>
+  <si>
+    <t>OTG_FS_DP (USB D+)</t>
+  </si>
+  <si>
+    <t>OTG_FS_DM (USB D-)</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>WKP</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>SPARE1</t>
+  </si>
+  <si>
+    <t>SPARE2</t>
+  </si>
+  <si>
+    <t>SPARE3</t>
+  </si>
+  <si>
+    <t>SPARE6</t>
+  </si>
+  <si>
+    <t>SPARE4</t>
+  </si>
+  <si>
+    <t>SPARE5</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1237,7 @@
   <dimension ref="B2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1251,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1209,10 +1266,10 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="18" x14ac:dyDescent="0.25">
@@ -1223,12 +1280,14 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
@@ -1243,7 +1302,9 @@
       <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -1258,38 +1319,42 @@
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18" x14ac:dyDescent="0.25">
@@ -1297,31 +1362,33 @@
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18" x14ac:dyDescent="0.25">
@@ -1329,16 +1396,16 @@
         <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="18" x14ac:dyDescent="0.25">
@@ -1346,13 +1413,13 @@
         <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -1361,16 +1428,16 @@
         <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="18" x14ac:dyDescent="0.25">
@@ -1378,46 +1445,50 @@
         <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.25">
@@ -1425,106 +1496,118 @@
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="21" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="22" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="23" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="24" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="18" x14ac:dyDescent="0.25">
@@ -1532,195 +1615,221 @@
         <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="26" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="27" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="28" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="29" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>52</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="31" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="32" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>54</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="33" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="34" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>61</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="35" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="36" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>63</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="37" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>64</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
